--- a/src/test/resources/examplefiles/combined-cells-short.xlsx
+++ b/src/test/resources/examplefiles/combined-cells-short.xlsx
@@ -7,37 +7,42 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="KZOLwBetH9RnTUvE7YnlC5QMhxLHwTtuBjI2sm/Po8Y="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
-    <t>Fra-konto</t>
-  </si>
-  <si>
-    <t>Til-konto</t>
-  </si>
-  <si>
-    <t>Beløp</t>
-  </si>
-  <si>
-    <t>Dato</t>
-  </si>
-  <si>
-    <t>Tekst</t>
-  </si>
-  <si>
-    <t>Kort sammenslått</t>
-  </si>
-  <si>
-    <t>Jeg er en beskrivelse</t>
-  </si>
-  <si>
-    <t>Enda en kort</t>
-  </si>
-  <si>
-    <t>Måtte flytte litt penger</t>
+    <t>Debit account</t>
+  </si>
+  <si>
+    <t>Credit account</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Short merged</t>
+  </si>
+  <si>
+    <t>I am a description</t>
+  </si>
+  <si>
+    <t>Another short</t>
+  </si>
+  <si>
+    <t>Had to move some money</t>
   </si>
   <si>
     <t>9879 54 324</t>
@@ -46,7 +51,7 @@
     <t>9880 54 325</t>
   </si>
   <si>
-    <t>hei</t>
+    <t>Hello</t>
   </si>
   <si>
     <t>9881 54 326</t>
@@ -90,7 +95,6 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,16 +111,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -331,13 +337,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="24.88"/>
+    <col customWidth="1" min="2" max="4" width="12.63"/>
     <col customWidth="1" min="5" max="5" width="21.0"/>
+    <col customWidth="1" min="6" max="6" width="12.63"/>
   </cols>
   <sheetData>
-    <row r="3">
+    <row r="1" ht="15.75" customHeight="1"/>
+    <row r="2" ht="15.75" customHeight="1"/>
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -354,215 +364,215 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>250.0</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>33936.0</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>251.0</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>33937.0</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="3">
         <v>1337.0</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>252.0</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>33938.0</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>1.23456789E8</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="3">
+        <v>1.23456789E8</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>253.0</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>33939.0</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>1.23456789E8</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="3">
+        <v>1.23456789E8</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>254.0</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>33940.0</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>1.23456789E8</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="3">
+        <v>1.23456789E8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>255.0</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>33941.0</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>1.23456789E8</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="3">
+        <v>1.23456789E8</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>256.0</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>33942.0</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>1.23456789E8</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="3">
+        <v>1.23456789E8</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>257.0</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>33943.0</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>1.23456789E8</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="3">
+        <v>1.23456789E8</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>258.0</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <v>33944.0</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>1.23456789E8</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="3">
+        <v>1.23456789E8</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>259.0</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="4">
         <v>33945.0</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>1.23456789E8</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="E13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="3">
+        <v>1.23456789E8</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>260.0</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="4">
         <v>33946.0</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>1.23456789E8</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="E14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="3">
+        <v>1.23456789E8</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <v>261.0</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="4">
         <v>33947.0</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>1.23456789E8</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="3">
+        <v>1.23456789E8</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <v>262.0</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="4">
         <v>33948.0</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>8</v>
       </c>
     </row>
